--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Castro\Documents\catalogo_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4241433D-2A95-455E-A995-E6CE62D75AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F068769D-A488-4501-A95F-1C762EF7937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02E3CDAF-A272-443C-8687-B38AE8A4CCA2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>ABRAC SELIM 31 8 ABSOLUTE AL PTO</t>
   </si>
@@ -33,27 +33,15 @@
     <t>ABRAC SELIM 31 8 IMP AL PTO</t>
   </si>
   <si>
-    <t>ABRA SELIM 31 8 IMP AL PTO</t>
-  </si>
-  <si>
-    <t>Nome do Produto</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
-    <t>Preço</t>
-  </si>
-  <si>
     <t>78.0003</t>
   </si>
   <si>
     <t>78.0006</t>
   </si>
   <si>
-    <t>78.0005</t>
-  </si>
-  <si>
     <t>Código do Produto</t>
   </si>
   <si>
@@ -79,22 +67,227 @@
   </si>
   <si>
     <t xml:space="preserve">ADAPTADOR DE VALVULA ALUM 10PCS </t>
+  </si>
+  <si>
+    <t>79.0103</t>
+  </si>
+  <si>
+    <t>ADAPTADOR SUP GUIDAO PTO TAIWAN AHEAD 21 1</t>
+  </si>
+  <si>
+    <t>79.0220</t>
+  </si>
+  <si>
+    <t>ADAPTADOR SUP GUIDAO AL POL TAIWAN AHEAD 25 4</t>
+  </si>
+  <si>
+    <t>12.0050</t>
+  </si>
+  <si>
+    <t>ALAVANCA 12V SHIMANO DEORE M6100 S VISOR</t>
+  </si>
+  <si>
+    <t>12.0031</t>
+  </si>
+  <si>
+    <t>ALAVANCA 21V SHIMANO TX50</t>
+  </si>
+  <si>
+    <t>12.0030</t>
+  </si>
+  <si>
+    <t>ALAVANCA 2X9V SHIMANO ALTUS M2010</t>
+  </si>
+  <si>
+    <t>12.0047</t>
+  </si>
+  <si>
+    <t>ALAVANCA 3X7V ABSOLUTE K310</t>
+  </si>
+  <si>
+    <t>12.0019</t>
+  </si>
+  <si>
+    <t>ALAVANCA 3X7V SUNRACE M400</t>
+  </si>
+  <si>
+    <t>12.0048</t>
+  </si>
+  <si>
+    <t>ALAVANCA 3X8V ABSOLUTE K310</t>
+  </si>
+  <si>
+    <t>12.0041</t>
+  </si>
+  <si>
+    <t>ALAVANCA 3X8V SHIMANO ALTUS M315</t>
+  </si>
+  <si>
+    <t>12.0038</t>
+  </si>
+  <si>
+    <t>ALAVANCA 3X8 SUNRACE M503</t>
+  </si>
+  <si>
+    <t>12.0001</t>
+  </si>
+  <si>
+    <t>ALAVANCA AL YAMADA</t>
+  </si>
+  <si>
+    <t>12.0042</t>
+  </si>
+  <si>
+    <t>ALAVANCA DUPLA SUNRACE C10</t>
+  </si>
+  <si>
+    <t>12.0013</t>
+  </si>
+  <si>
+    <t>ALAVANCA EZ FIRE 21V SHIMANO EF 500 PTO</t>
+  </si>
+  <si>
+    <t>02.0033</t>
+  </si>
+  <si>
+    <t>RODA 16 AL RIMAXX NATURAL ESF PAR</t>
+  </si>
+  <si>
+    <t>02.0288</t>
+  </si>
+  <si>
+    <t>RODA 24 AERO VZAN PTO ESF PAR</t>
+  </si>
+  <si>
+    <t>02.0003</t>
+  </si>
+  <si>
+    <t>RODA 26 AERO VZAN PTO CUBO ROLLER PTO R FINO PAR</t>
+  </si>
+  <si>
+    <t>07.0051</t>
+  </si>
+  <si>
+    <t>PASTILHA REFIL ABSOLUTE ABS02S F DISCO REDONDA</t>
+  </si>
+  <si>
+    <t>44.0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA ESTRELA AH SET ABSOLUTE 5UN </t>
+  </si>
+  <si>
+    <t>12.0005</t>
+  </si>
+  <si>
+    <t>ALAVANCA EZ FIRE 21V AL YAMADA PTO</t>
+  </si>
+  <si>
+    <t>12.0046</t>
+  </si>
+  <si>
+    <t>ALAVANCA EZ FIRE 24V SUNRACE M406 PTO POL</t>
+  </si>
+  <si>
+    <t>12.0006</t>
+  </si>
+  <si>
+    <t>ALAVANCA EZ FIRE 24V YAMADA PTO</t>
+  </si>
+  <si>
+    <t>12.0011</t>
+  </si>
+  <si>
+    <t>ALAVANCA G SHIFT 21V YAMADA K30 INDEX</t>
+  </si>
+  <si>
+    <t>12.0002</t>
+  </si>
+  <si>
+    <t>ALAVANCA NYLON YAMADA</t>
+  </si>
+  <si>
+    <t>79.0194</t>
+  </si>
+  <si>
+    <t>AMORTECEDOR P QUADRO F SUSP 150MM PTA</t>
+  </si>
+  <si>
+    <t>79.0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANEL ESPACADOR AL 10MM LISO PTO 10 PCS </t>
+  </si>
+  <si>
+    <t>44.0057</t>
+  </si>
+  <si>
+    <t>ARANHA ESTRELA P TAMPA AH SET 25 4</t>
+  </si>
+  <si>
+    <t>02.0260</t>
+  </si>
+  <si>
+    <t>ARO 16X1 75 RIMAXX AL NAT</t>
+  </si>
+  <si>
+    <t>02.0029</t>
+  </si>
+  <si>
+    <t>ARO 20 VZAN VMAXX 36F PTO VB S ILHOS</t>
+  </si>
+  <si>
+    <t>02.0030</t>
+  </si>
+  <si>
+    <t>ARO 20 VZAN VMAXX 36F BCO VB S ILHOS</t>
+  </si>
+  <si>
+    <t>02.0261</t>
+  </si>
+  <si>
+    <t>ARO 20X1 75 RIMAXX AL NAT</t>
+  </si>
+  <si>
+    <t>02.0058</t>
+  </si>
+  <si>
+    <t>ARO 20X1 75 VZAN AERO AZ</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>SELIM</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS</t>
+  </si>
+  <si>
+    <t>RODA</t>
+  </si>
+  <si>
+    <t>GUIDÃO</t>
+  </si>
+  <si>
+    <t>ALAVANCA</t>
+  </si>
+  <si>
+    <t>FREIO</t>
+  </si>
+  <si>
+    <t>QUADRO</t>
+  </si>
+  <si>
+    <t>MOVIMENTO DIREÇÃO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,11 +315,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,129 +634,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B5E345-C4B2-49FA-A914-04EE787905E0}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Castro\Documents\catalogo_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA77FBB-4BD5-4A74-9EF1-C5A5090C67AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2CC335-EC13-47B1-B8FE-149E39312220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{02E3CDAF-A272-443C-8687-B38AE8A4CCA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02E3CDAF-A272-443C-8687-B38AE8A4CCA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$192</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t>Descrição</t>
   </si>
@@ -54,30 +57,6 @@
     <t>Categoria</t>
   </si>
   <si>
-    <t>SELIM</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS</t>
-  </si>
-  <si>
-    <t>RODA</t>
-  </si>
-  <si>
-    <t>GUIDÃO</t>
-  </si>
-  <si>
-    <t>ALAVANCA</t>
-  </si>
-  <si>
-    <t>FREIO</t>
-  </si>
-  <si>
-    <t>QUADRO</t>
-  </si>
-  <si>
-    <t>MOVIMENTO DIREÇÃO</t>
-  </si>
-  <si>
     <t>12.0061</t>
   </si>
   <si>
@@ -87,18 +66,6 @@
     <t>ALAVANCA EZ-FIRE 24V SUNRACE M406 PTO/POL</t>
   </si>
   <si>
-    <t>02.0095</t>
-  </si>
-  <si>
-    <t>ARO 20X1.75 VZAN AERO BCO</t>
-  </si>
-  <si>
-    <t>02.0071</t>
-  </si>
-  <si>
-    <t>ARO 20X1.75 VZAN AERO VIOL</t>
-  </si>
-  <si>
     <t>02.0340</t>
   </si>
   <si>
@@ -135,12 +102,6 @@
     <t>ARO 26 VMAXX VZAN 36F LRJ NEON VB S/ILHOS</t>
   </si>
   <si>
-    <t>02.0465</t>
-  </si>
-  <si>
-    <t>ARO 26 VMAXX VZAN 36F PTO/LRJ NEON VB S/ILHOS</t>
-  </si>
-  <si>
     <t>02.0463</t>
   </si>
   <si>
@@ -177,12 +138,6 @@
     <t>ARO 29/32F VZAN VNINE PTO VB</t>
   </si>
   <si>
-    <t>28.0030</t>
-  </si>
-  <si>
-    <t>BAGAGEIRO AL MOOVE 26 A 29 PTO</t>
-  </si>
-  <si>
     <t>04.0044</t>
   </si>
   <si>
@@ -207,18 +162,6 @@
     <t>BOMBA DISPOSITIVO CLY CO2 DE ROSCA</t>
   </si>
   <si>
-    <t>53.0023</t>
-  </si>
-  <si>
-    <t>CADEADO 12MMX1500 ESP GTA PTO</t>
-  </si>
-  <si>
-    <t>53.0022</t>
-  </si>
-  <si>
-    <t>CADEADO 18MMX1000 GTA ARTICULADO PTO</t>
-  </si>
-  <si>
     <t>30.0021</t>
   </si>
   <si>
@@ -351,12 +294,6 @@
     <t>COLAR LINIERS CHAPA M.CENTRAL 34,7MM AÇO (25 UNID)</t>
   </si>
   <si>
-    <t>16.0023</t>
-  </si>
-  <si>
-    <t>CONDUITE CAMBIO TAIWAN 4MMX10M</t>
-  </si>
-  <si>
     <t>18.0035</t>
   </si>
   <si>
@@ -429,18 +366,6 @@
     <t>EIXO CENTRAL 3U TAIWAN P/QUAD</t>
   </si>
   <si>
-    <t>35.0051</t>
-  </si>
-  <si>
-    <t>EIXO DIANT 108MM ABSOLUTE FURADO C/ROL</t>
-  </si>
-  <si>
-    <t>35.0003</t>
-  </si>
-  <si>
-    <t>EIXO DIANT/TRAS ABSOLUTE FURADO C/ROL</t>
-  </si>
-  <si>
     <t>42.0005</t>
   </si>
   <si>
@@ -675,12 +600,6 @@
     <t>KIT BIC 29 TAM 21 DESMONTADO QUADRO ECOS LARANJA NEON ONIX</t>
   </si>
   <si>
-    <t>14.0043</t>
-  </si>
-  <si>
-    <t>KIT CAMBIO 8V 22/32/42 MICROSHIFT</t>
-  </si>
-  <si>
     <t>83.0862</t>
   </si>
   <si>
@@ -735,12 +654,6 @@
     <t>MOV CENTRAL 34.7 EVOLO HOLLOWTECH 68/73 24MM</t>
   </si>
   <si>
-    <t>22.0095</t>
-  </si>
-  <si>
-    <t>MOV CENTRAL 34.7/118MM ABSOLUTE C/ ROL SEL S/CAIXA</t>
-  </si>
-  <si>
     <t>70.0037</t>
   </si>
   <si>
@@ -1101,30 +1014,6 @@
     <t>RODA LATERAL 12 JKS</t>
   </si>
   <si>
-    <t>15.0103</t>
-  </si>
-  <si>
-    <t>RODA LIVRE 7V INDEX YU QIU</t>
-  </si>
-  <si>
-    <t>79.0305</t>
-  </si>
-  <si>
-    <t>ROLETE 6,6MM</t>
-  </si>
-  <si>
-    <t>79.0593</t>
-  </si>
-  <si>
-    <t>ROLETE 6,7MM</t>
-  </si>
-  <si>
-    <t>79.0523</t>
-  </si>
-  <si>
-    <t>ROLETES 6 9MM</t>
-  </si>
-  <si>
     <t>79.0057</t>
   </si>
   <si>
@@ -1294,12 +1183,21 @@
   </si>
   <si>
     <t>VALVULA TUBELESS 46MM SOLIFES PTO</t>
+  </si>
+  <si>
+    <t>Preço Antigo</t>
+  </si>
+  <si>
+    <t>Preço Promoção</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1309,7 +1207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1352,12 +1249,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1672,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B5E345-C4B2-49FA-A914-04EE787905E0}">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,1779 +1585,2894 @@
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>388.31</v>
+      </c>
+      <c r="E2" s="4">
+        <v>221.87880000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>14.45</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.0308799999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>46.309999999999995</v>
+      </c>
+      <c r="E4" s="4">
+        <v>26.254799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>205.53</v>
+      </c>
+      <c r="E5" s="4">
+        <v>117.32864000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>42.41</v>
+      </c>
+      <c r="E6" s="4">
+        <v>24.024000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>32.19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>18.178160000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>32.19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>18.178160000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>46.709999999999994</v>
+      </c>
+      <c r="E9" s="4">
+        <v>26.483599999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>74.67</v>
+      </c>
+      <c r="E10" s="4">
+        <v>42.47672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>83.009999999999991</v>
+      </c>
+      <c r="E11" s="4">
+        <v>47.247199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>83.009999999999991</v>
+      </c>
+      <c r="E12" s="4">
+        <v>47.247199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>43.41</v>
+      </c>
+      <c r="E13" s="4">
+        <v>24.596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>43.41</v>
+      </c>
+      <c r="E14" s="4">
+        <v>24.596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>43.629999999999995</v>
+      </c>
+      <c r="E15" s="4">
+        <v>24.72184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>52.449999999999996</v>
+      </c>
+      <c r="E16" s="4">
+        <v>29.76688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>50.849999999999994</v>
+      </c>
+      <c r="E17" s="4">
+        <v>28.851680000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>104.41</v>
+      </c>
+      <c r="E18" s="4">
+        <v>59.488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>104.41</v>
+      </c>
+      <c r="E19" s="4">
+        <v>59.488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>757.08999999999992</v>
+      </c>
+      <c r="E20" s="4">
+        <v>432.82095999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>55.01</v>
+      </c>
+      <c r="E21" s="4">
+        <v>31.231200000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>166.60999999999999</v>
+      </c>
+      <c r="E22" s="4">
+        <v>95.066399999999987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>132.41</v>
+      </c>
+      <c r="E23" s="4">
+        <v>75.504000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>132.41</v>
+      </c>
+      <c r="E24" s="4">
+        <v>75.504000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>420.71000000000004</v>
+      </c>
+      <c r="E25" s="4">
+        <v>240.41160000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <v>356.73</v>
+      </c>
+      <c r="E26" s="4">
+        <v>203.81503999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>139.81</v>
+      </c>
+      <c r="E27" s="4">
+        <v>79.736800000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>135.93</v>
+      </c>
+      <c r="E28" s="4">
+        <v>77.517440000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>42.529999999999994</v>
+      </c>
+      <c r="E29" s="4">
+        <v>24.092639999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>268.71000000000004</v>
+      </c>
+      <c r="E30" s="4">
+        <v>153.46760000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>691.20999999999992</v>
+      </c>
+      <c r="E31" s="4">
+        <v>395.13759999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <v>58.389999999999993</v>
+      </c>
+      <c r="E32" s="4">
+        <v>33.164560000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
+        <v>568.49</v>
+      </c>
+      <c r="E33" s="4">
+        <v>324.94176000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>449.07000000000005</v>
+      </c>
+      <c r="E35" s="4">
+        <v>256.63351999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>808.79</v>
+      </c>
+      <c r="E36" s="4">
+        <v>462.39335999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
+        <v>917.49</v>
+      </c>
+      <c r="E37" s="4">
+        <v>524.56976000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <v>30.09</v>
+      </c>
+      <c r="E38" s="4">
+        <v>16.976960000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
+        <v>17.330000000000002</v>
+      </c>
+      <c r="E39" s="4">
+        <v>9.6782400000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <v>9.49</v>
+      </c>
+      <c r="E40" s="4">
+        <v>5.1937600000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
+        <v>14.19</v>
+      </c>
+      <c r="E41" s="4">
+        <v>7.8821599999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3">
+        <v>17.55</v>
+      </c>
+      <c r="E42" s="4">
+        <v>9.8040800000000008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
+        <v>25.03</v>
+      </c>
+      <c r="E43" s="4">
+        <v>14.082640000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <v>264.27000000000004</v>
+      </c>
+      <c r="E44" s="4">
+        <v>150.92792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3">
+        <v>200.21</v>
+      </c>
+      <c r="E45" s="4">
+        <v>114.2856</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3">
+        <v>120.25</v>
+      </c>
+      <c r="E46" s="4">
+        <v>68.548479999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3">
+        <v>355.69</v>
+      </c>
+      <c r="E47" s="4">
+        <v>203.22015999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3">
+        <v>120.21</v>
+      </c>
+      <c r="E48" s="4">
+        <v>68.525599999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3">
+        <v>331.29</v>
+      </c>
+      <c r="E49" s="4">
+        <v>189.26336000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3">
+        <v>83.13</v>
+      </c>
+      <c r="E50" s="4">
+        <v>47.315840000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3">
+        <v>30.69</v>
+      </c>
+      <c r="E51" s="4">
+        <v>17.320160000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3">
+        <v>223.60999999999999</v>
+      </c>
+      <c r="E52" s="4">
+        <v>127.6704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3">
+        <v>494.63000000000005</v>
+      </c>
+      <c r="E53" s="4">
+        <v>282.69384000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3">
+        <v>455.49</v>
+      </c>
+      <c r="E54" s="4">
+        <v>260.30575999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="E55" s="4">
+        <v>5.2738400000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3">
+        <v>5.8100000000000005</v>
+      </c>
+      <c r="E56" s="4">
+        <v>3.0888000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3">
+        <v>178.65</v>
+      </c>
+      <c r="E57" s="4">
+        <v>101.95328000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3">
+        <v>232.71</v>
+      </c>
+      <c r="E58" s="4">
+        <v>132.87560000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3">
+        <v>139.94999999999999</v>
+      </c>
+      <c r="E59" s="4">
+        <v>79.816879999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3">
+        <v>118.92999999999999</v>
+      </c>
+      <c r="E60" s="4">
+        <v>67.79343999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3">
+        <v>161.13</v>
+      </c>
+      <c r="E61" s="4">
+        <v>91.931839999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3">
+        <v>120.28999999999999</v>
+      </c>
+      <c r="E62" s="4">
+        <v>68.571359999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3">
+        <v>97.83</v>
+      </c>
+      <c r="E63" s="4">
+        <v>55.724240000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3">
+        <v>106.09</v>
+      </c>
+      <c r="E64" s="4">
+        <v>60.44896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3">
+        <v>83.27</v>
+      </c>
+      <c r="E65" s="4">
+        <v>47.395920000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3">
+        <v>99.61</v>
+      </c>
+      <c r="E66" s="4">
+        <v>56.742400000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3">
+        <v>164.57</v>
+      </c>
+      <c r="E67" s="4">
+        <v>93.899519999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3">
+        <v>164.57</v>
+      </c>
+      <c r="E68" s="4">
+        <v>93.899519999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3">
+        <v>94.59</v>
+      </c>
+      <c r="E69" s="4">
+        <v>53.870960000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3">
+        <v>88.17</v>
+      </c>
+      <c r="E70" s="4">
+        <v>50.198720000000009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3">
+        <v>106.92999999999999</v>
+      </c>
+      <c r="E71" s="4">
+        <v>60.92944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3">
+        <v>117.50999999999999</v>
+      </c>
+      <c r="E72" s="4">
+        <v>66.981200000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3">
+        <v>95.929999999999993</v>
+      </c>
+      <c r="E73" s="4">
+        <v>54.637439999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3">
+        <v>95.929999999999993</v>
+      </c>
+      <c r="E74" s="4">
+        <v>54.637439999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3">
+        <v>766.41</v>
+      </c>
+      <c r="E75" s="4">
+        <v>438.15199999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3">
+        <v>30.21</v>
+      </c>
+      <c r="E76" s="4">
+        <v>17.0456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3">
+        <v>30.43</v>
+      </c>
+      <c r="E77" s="4">
+        <v>17.17144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3">
+        <v>30.43</v>
+      </c>
+      <c r="E78" s="4">
+        <v>17.17144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3">
+        <v>30.43</v>
+      </c>
+      <c r="E79" s="4">
+        <v>17.17144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3">
+        <v>30.43</v>
+      </c>
+      <c r="E80" s="4">
+        <v>17.17144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3">
+        <v>30.21</v>
+      </c>
+      <c r="E81" s="4">
+        <v>17.0456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3">
+        <v>30.43</v>
+      </c>
+      <c r="E82" s="4">
+        <v>17.17144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3">
+        <v>30.43</v>
+      </c>
+      <c r="E83" s="4">
+        <v>17.17144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3">
+        <v>30.43</v>
+      </c>
+      <c r="E84" s="4">
+        <v>17.17144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3">
+        <v>30.43</v>
+      </c>
+      <c r="E85" s="4">
+        <v>17.17144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3">
+        <v>30.21</v>
+      </c>
+      <c r="E86" s="4">
+        <v>17.0456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3">
+        <v>30.43</v>
+      </c>
+      <c r="E87" s="4">
+        <v>17.17144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="C88" s="3"/>
+      <c r="D88" s="3">
+        <v>19.330000000000002</v>
+      </c>
+      <c r="E88" s="4">
+        <v>10.822240000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3">
+        <v>51.709999999999994</v>
+      </c>
+      <c r="E89" s="4">
+        <v>29.343599999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3">
+        <v>1998.41</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1142.856</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="C91" s="3"/>
+      <c r="D91" s="3">
+        <v>991.43</v>
+      </c>
+      <c r="E91" s="4">
+        <v>566.86343999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3">
+        <v>991.43</v>
+      </c>
+      <c r="E92" s="4">
+        <v>566.86343999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="C93" s="3"/>
+      <c r="D93" s="3">
+        <v>991.43</v>
+      </c>
+      <c r="E93" s="4">
+        <v>566.86343999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="C94" s="3"/>
+      <c r="D94" s="3">
+        <v>991.43</v>
+      </c>
+      <c r="E94" s="4">
+        <v>566.86343999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="C95" s="3"/>
+      <c r="D95" s="3">
+        <v>625.29</v>
+      </c>
+      <c r="E95" s="4">
+        <v>357.43135999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="C96" s="3"/>
+      <c r="D96" s="3">
+        <v>26.21</v>
+      </c>
+      <c r="E96" s="4">
+        <v>14.7576</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="C97" s="3"/>
+      <c r="D97" s="3">
+        <v>27.05</v>
+      </c>
+      <c r="E97" s="4">
+        <v>15.23808</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="C98" s="3"/>
+      <c r="D98" s="3">
+        <v>10.57</v>
+      </c>
+      <c r="E98" s="4">
+        <v>5.8115199999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3">
+        <v>65.47</v>
+      </c>
+      <c r="E99" s="4">
+        <v>37.214320000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3">
+        <v>65.47</v>
+      </c>
+      <c r="E100" s="4">
+        <v>37.214320000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="C101" s="3"/>
+      <c r="D101" s="3">
+        <v>9.01</v>
+      </c>
+      <c r="E101" s="4">
+        <v>4.9191999999999991</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3">
+        <v>15.53</v>
+      </c>
+      <c r="E102" s="4">
+        <v>8.6486399999999986</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3">
+        <v>64.23</v>
+      </c>
+      <c r="E103" s="4">
+        <v>36.505040000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="C104" s="3"/>
+      <c r="D104" s="3">
+        <v>76.41</v>
+      </c>
+      <c r="E104" s="4">
+        <v>43.472000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="C105" s="3"/>
+      <c r="D105" s="3">
+        <v>340.57000000000005</v>
+      </c>
+      <c r="E105" s="4">
+        <v>194.57152000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="C106" s="3"/>
+      <c r="D106" s="3">
+        <v>58.11</v>
+      </c>
+      <c r="E106" s="4">
+        <v>33.004400000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="C107" s="3"/>
+      <c r="D107" s="3">
+        <v>36.769999999999996</v>
+      </c>
+      <c r="E107" s="4">
+        <v>20.797919999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="C108" s="3"/>
+      <c r="D108" s="3">
+        <v>103.75</v>
+      </c>
+      <c r="E108" s="4">
+        <v>59.110480000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="C109" s="3"/>
+      <c r="D109" s="3">
+        <v>146.01</v>
+      </c>
+      <c r="E109" s="4">
+        <v>83.283200000000008</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="C110" s="3"/>
+      <c r="D110" s="3">
+        <v>24.93</v>
+      </c>
+      <c r="E110" s="4">
+        <v>14.02544</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="C111" s="3"/>
+      <c r="D111" s="3">
+        <v>250.41</v>
+      </c>
+      <c r="E111" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="C112" s="3"/>
+      <c r="D112" s="3">
+        <v>288.01000000000005</v>
+      </c>
+      <c r="E112" s="4">
+        <v>164.50720000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="C113" s="3"/>
+      <c r="D113" s="3">
+        <v>1050.95</v>
+      </c>
+      <c r="E113" s="4">
+        <v>600.90887999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="C114" s="3"/>
+      <c r="D114" s="3">
+        <v>482.15000000000003</v>
+      </c>
+      <c r="E114" s="4">
+        <v>275.55528000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="C115" s="3"/>
+      <c r="D115" s="3">
+        <v>24.63</v>
+      </c>
+      <c r="E115" s="4">
+        <v>13.85384</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="C116" s="3"/>
+      <c r="D116" s="3">
+        <v>31.47</v>
+      </c>
+      <c r="E116" s="4">
+        <v>17.76632</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="C117" s="3"/>
+      <c r="D117" s="3">
+        <v>66.45</v>
+      </c>
+      <c r="E117" s="4">
+        <v>37.774880000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="C118" s="3"/>
+      <c r="D118" s="3">
+        <v>94.61</v>
+      </c>
+      <c r="E118" s="4">
+        <v>53.882400000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="C119" s="3"/>
+      <c r="D119" s="3">
+        <v>94.61</v>
+      </c>
+      <c r="E119" s="4">
+        <v>53.882400000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="C120" s="3"/>
+      <c r="D120" s="3">
+        <v>96.67</v>
+      </c>
+      <c r="E120" s="4">
+        <v>55.060720000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="C121" s="3"/>
+      <c r="D121" s="3">
+        <v>55.41</v>
+      </c>
+      <c r="E121" s="4">
+        <v>31.46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="C122" s="3"/>
+      <c r="D122" s="3">
+        <v>84.789999999999992</v>
+      </c>
+      <c r="E122" s="4">
+        <v>48.265360000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="C123" s="3"/>
+      <c r="D123" s="3">
+        <v>57.01</v>
+      </c>
+      <c r="E123" s="4">
+        <v>32.3752</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="C124" s="3"/>
+      <c r="D124" s="3">
+        <v>70.63</v>
+      </c>
+      <c r="E124" s="4">
+        <v>40.165840000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="C125" s="3"/>
+      <c r="D125" s="3">
+        <v>308.65000000000003</v>
+      </c>
+      <c r="E125" s="4">
+        <v>176.31328000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="C126" s="3"/>
+      <c r="D126" s="3">
+        <v>203.21</v>
+      </c>
+      <c r="E126" s="4">
+        <v>116.0016</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="C127" s="3"/>
+      <c r="D127" s="3">
+        <v>153.94999999999999</v>
+      </c>
+      <c r="E127" s="4">
+        <v>87.824880000000007</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="C128" s="3"/>
+      <c r="D128" s="3">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="E128" s="4">
+        <v>5.2738400000000007</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="C129" s="3"/>
+      <c r="D129" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="E129" s="4">
+        <v>2.02488</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="C130" s="3"/>
+      <c r="D130" s="3">
+        <v>284.57000000000005</v>
+      </c>
+      <c r="E130" s="4">
+        <v>162.53952000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="C131" s="3"/>
+      <c r="D131" s="3">
+        <v>729.15</v>
+      </c>
+      <c r="E131" s="4">
+        <v>416.83927999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="C132" s="3"/>
+      <c r="D132" s="3">
+        <v>729.15</v>
+      </c>
+      <c r="E132" s="4">
+        <v>416.83927999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="C133" s="3"/>
+      <c r="D133" s="3">
+        <v>729.15</v>
+      </c>
+      <c r="E133" s="4">
+        <v>416.83927999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="C134" s="3"/>
+      <c r="D134" s="3">
+        <v>776.41</v>
+      </c>
+      <c r="E134" s="4">
+        <v>443.87199999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="C135" s="3"/>
+      <c r="D135" s="3">
+        <v>300.55</v>
+      </c>
+      <c r="E135" s="4">
+        <v>171.68008</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="C136" s="3"/>
+      <c r="D136" s="3">
+        <v>363.21000000000004</v>
+      </c>
+      <c r="E136" s="4">
+        <v>207.52160000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="C137" s="3"/>
+      <c r="D137" s="3">
+        <v>363.21000000000004</v>
+      </c>
+      <c r="E137" s="4">
+        <v>207.52160000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B138" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="C138" s="3"/>
+      <c r="D138" s="3">
+        <v>363.21000000000004</v>
+      </c>
+      <c r="E138" s="4">
+        <v>207.52160000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="C139" s="3"/>
+      <c r="D139" s="3">
+        <v>320.53000000000003</v>
+      </c>
+      <c r="E139" s="4">
+        <v>183.10864000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="C140" s="3"/>
+      <c r="D140" s="3">
+        <v>320.53000000000003</v>
+      </c>
+      <c r="E140" s="4">
+        <v>183.10864000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="C141" s="3"/>
+      <c r="D141" s="3">
+        <v>320.53000000000003</v>
+      </c>
+      <c r="E141" s="4">
+        <v>183.10864000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="C142" s="3"/>
+      <c r="D142" s="3">
+        <v>320.53000000000003</v>
+      </c>
+      <c r="E142" s="4">
+        <v>183.10864000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="C143" s="3"/>
+      <c r="D143" s="3">
+        <v>320.53000000000003</v>
+      </c>
+      <c r="E143" s="4">
+        <v>183.10864000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="C144" s="3"/>
+      <c r="D144" s="3">
+        <v>173.01</v>
+      </c>
+      <c r="E144" s="4">
+        <v>98.727199999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="C145" s="3"/>
+      <c r="D145" s="3">
+        <v>375.81</v>
+      </c>
+      <c r="E145" s="4">
+        <v>214.72880000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="C146" s="3"/>
+      <c r="D146" s="3">
+        <v>284.57000000000005</v>
+      </c>
+      <c r="E146" s="4">
+        <v>162.53952000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="C147" s="3"/>
+      <c r="D147" s="3">
+        <v>284.57000000000005</v>
+      </c>
+      <c r="E147" s="4">
+        <v>162.53952000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="C148" s="3"/>
+      <c r="D148" s="3">
+        <v>321.35000000000002</v>
+      </c>
+      <c r="E148" s="4">
+        <v>183.57768000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="C149" s="3"/>
+      <c r="D149" s="3">
+        <v>375.81</v>
+      </c>
+      <c r="E149" s="4">
+        <v>214.72880000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="C150" s="3"/>
+      <c r="D150" s="3">
+        <v>360.17</v>
+      </c>
+      <c r="E150" s="4">
+        <v>205.78271999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="C151" s="3"/>
+      <c r="D151" s="3">
+        <v>360.17</v>
+      </c>
+      <c r="E151" s="4">
+        <v>205.78271999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="C152" s="3"/>
+      <c r="D152" s="3">
+        <v>330.41</v>
+      </c>
+      <c r="E152" s="4">
+        <v>188.76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="C153" s="3"/>
+      <c r="D153" s="3">
+        <v>360.17</v>
+      </c>
+      <c r="E153" s="4">
+        <v>205.78271999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="C154" s="3"/>
+      <c r="D154" s="3">
+        <v>330.41</v>
+      </c>
+      <c r="E154" s="4">
+        <v>188.76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="C155" s="3"/>
+      <c r="D155" s="3">
+        <v>1512.21</v>
+      </c>
+      <c r="E155" s="4">
+        <v>864.74959999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="C156" s="3"/>
+      <c r="D156" s="3">
+        <v>386.59000000000003</v>
+      </c>
+      <c r="E156" s="4">
+        <v>220.89496000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="C157" s="3"/>
+      <c r="D157" s="3">
+        <v>386.59000000000003</v>
+      </c>
+      <c r="E157" s="4">
+        <v>220.89496000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="C158" s="3"/>
+      <c r="D158" s="3">
+        <v>1577.67</v>
+      </c>
+      <c r="E158" s="4">
+        <v>902.19272000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="C159" s="3"/>
+      <c r="D159" s="3">
+        <v>360.17</v>
+      </c>
+      <c r="E159" s="4">
+        <v>205.78271999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="C160" s="3"/>
+      <c r="D160" s="3">
+        <v>231.43</v>
+      </c>
+      <c r="E160" s="4">
+        <v>132.14344</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="C161" s="3"/>
+      <c r="D161" s="3">
+        <v>231.43</v>
+      </c>
+      <c r="E161" s="4">
+        <v>132.14344</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="C162" s="3"/>
+      <c r="D162" s="3">
+        <v>120.05</v>
+      </c>
+      <c r="E162" s="4">
+        <v>68.434079999999994</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="C163" s="3"/>
+      <c r="D163" s="3">
+        <v>22.31</v>
+      </c>
+      <c r="E163" s="4">
+        <v>12.5268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="C164" s="3"/>
+      <c r="D164" s="3">
+        <v>903.13</v>
+      </c>
+      <c r="E164" s="4">
+        <v>516.35583999999994</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="C165" s="3"/>
+      <c r="D165" s="3">
+        <v>660.20999999999992</v>
+      </c>
+      <c r="E165" s="4">
+        <v>377.40559999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="C166" s="3"/>
+      <c r="D166" s="3">
+        <v>100.83</v>
+      </c>
+      <c r="E166" s="4">
+        <v>57.440240000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="C167" s="3"/>
+      <c r="D167" s="3">
+        <v>85.929999999999993</v>
+      </c>
+      <c r="E167" s="4">
+        <v>48.917439999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="C168" s="3"/>
+      <c r="D168" s="3">
+        <v>42.849999999999994</v>
+      </c>
+      <c r="E168" s="4">
+        <v>24.275680000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="C169" s="3"/>
+      <c r="D169" s="3">
+        <v>42.849999999999994</v>
+      </c>
+      <c r="E169" s="4">
+        <v>24.275680000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="C170" s="3"/>
+      <c r="D170" s="3">
+        <v>42.849999999999994</v>
+      </c>
+      <c r="E170" s="4">
+        <v>24.275680000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="C171" s="3"/>
+      <c r="D171" s="3">
+        <v>122.72999999999999</v>
+      </c>
+      <c r="E171" s="4">
+        <v>69.967039999999997</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="C172" s="3"/>
+      <c r="D172" s="3">
+        <v>23.79</v>
+      </c>
+      <c r="E172" s="4">
+        <v>13.373359999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="C173" s="3"/>
+      <c r="D173" s="3">
+        <v>49.41</v>
+      </c>
+      <c r="E173" s="4">
+        <v>28.027999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="C174" s="3"/>
+      <c r="D174" s="3">
+        <v>98.35</v>
+      </c>
+      <c r="E174" s="4">
+        <v>56.021679999999996</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="C175" s="3"/>
+      <c r="D175" s="3">
+        <v>63.19</v>
+      </c>
+      <c r="E175" s="4">
+        <v>35.910160000000005</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="C176" s="3"/>
+      <c r="D176" s="3">
+        <v>97.61</v>
+      </c>
+      <c r="E176" s="4">
+        <v>55.598400000000005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="C177" s="3"/>
+      <c r="D177" s="3">
+        <v>114.91</v>
+      </c>
+      <c r="E177" s="4">
+        <v>65.494</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="C178" s="3"/>
+      <c r="D178" s="3">
+        <v>79.649999999999991</v>
+      </c>
+      <c r="E178" s="4">
+        <v>45.325279999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="C179" s="3"/>
+      <c r="D179" s="3">
+        <v>140.21</v>
+      </c>
+      <c r="E179" s="4">
+        <v>79.965600000000009</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="C180" s="3"/>
+      <c r="D180" s="3">
+        <v>150.41</v>
+      </c>
+      <c r="E180" s="4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="C181" s="3"/>
+      <c r="D181" s="3">
+        <v>15.93</v>
+      </c>
+      <c r="E181" s="4">
+        <v>8.87744</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="C182" s="3"/>
+      <c r="D182" s="3">
+        <v>15.93</v>
+      </c>
+      <c r="E182" s="4">
+        <v>8.87744</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="C183" s="3"/>
+      <c r="D183" s="3">
+        <v>15.93</v>
+      </c>
+      <c r="E183" s="4">
+        <v>8.87744</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B184" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="C184" s="3"/>
+      <c r="D184" s="3">
+        <v>15.93</v>
+      </c>
+      <c r="E184" s="4">
+        <v>8.87744</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="C185" s="3"/>
+      <c r="D185" s="3">
+        <v>88.59</v>
+      </c>
+      <c r="E185" s="4">
+        <v>50.438960000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C186" s="3"/>
+      <c r="D186" s="3">
+        <v>31.51</v>
+      </c>
+      <c r="E186" s="4">
+        <v>17.789200000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="C187" s="3"/>
+      <c r="D187" s="3">
+        <v>26.79</v>
+      </c>
+      <c r="E187" s="4">
+        <v>15.089359999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="C188" s="3"/>
+      <c r="D188" s="3">
+        <v>26.79</v>
+      </c>
+      <c r="E188" s="4">
+        <v>15.089359999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="C189" s="3"/>
+      <c r="D189" s="3">
+        <v>26.79</v>
+      </c>
+      <c r="E189" s="4">
+        <v>15.089359999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C190" s="3"/>
+      <c r="D190" s="3">
+        <v>26.79</v>
+      </c>
+      <c r="E190" s="4">
+        <v>15.089359999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="C191" s="3"/>
+      <c r="D191" s="3">
+        <v>250.41</v>
+      </c>
+      <c r="E191" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="B192" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>422</v>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3">
+        <v>54.809999999999995</v>
+      </c>
+      <c r="E192" s="4">
+        <v>31.116800000000001</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E192" xr:uid="{32B5E345-C4B2-49FA-A914-04EE787905E0}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
